--- a/static/NewTemplate.xlsx
+++ b/static/NewTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itsth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coding\Documents\Github\vwa\volleyballwa.github.io\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA33AD-AA03-460F-8948-89B8B10B7D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195F4D5-C0E6-4742-A2FF-AEF352217298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41670" yWindow="3510" windowWidth="28800" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
@@ -889,9 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1263,11 +1261,7 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A2:A100 A103:A1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"VWA 12 Sub,PSA - Middle School,PSA - Senior School,VWA Junior League,AVSL - Rounds,AVSL - Finals,EVA"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="B2:B100 B103:B1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="B2:B100 B103:B1001 A501:A1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
@@ -1286,6 +1280,9 @@
     <dataValidation type="whole" allowBlank="1" showErrorMessage="1" sqref="E2:E100 E103:E1001" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>23</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="A2:A500" xr:uid="{453A61B1-F896-4D15-B628-D4CDE8D23FF6}">
+      <formula1>"VWA 12 Sub,PSA - Middle School,PSA - Senior School,VWA Junior League,AVSL - Rounds,AVSL - Finals,EVA,VWA Beach High School"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
